--- a/data_participantes/Omar Huerta_20251119_152531/experimento_Omar Huerta_20251119_152531.xlsx
+++ b/data_participantes/Omar Huerta_20251119_152531/experimento_Omar Huerta_20251119_152531.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Annie’s Shells &amp; White Cheddar</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -702,57 +702,57 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.765716</v>
+        <v>23.428511</v>
       </c>
       <c r="H2" t="n">
-        <v>2.765716</v>
+        <v>23.428511</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:36.574937</t>
+          <t>2025-12-02T14:19:06.337210</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1764629076.574937</v>
+        <v>1764685146.33721</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:39.340653</t>
+          <t>2025-12-02T14:19:29.765721</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1764629079.340653</v>
+        <v>1764685169.765721</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:39.340653</t>
+          <t>2025-12-02T14:19:29.765721</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1764629079.340653</v>
+        <v>1764685169.765721</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:36.465862</t>
+          <t>2025-12-02T14:19:06.246400</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-12-01T22:45:07.130404</t>
+          <t>2025-12-02T14:21:28.078047</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1764629076.465862</v>
+        <v>1764685146.2464</v>
       </c>
       <c r="R2" t="n">
-        <v>1764629107.130404</v>
+        <v>1764685288.078047</v>
       </c>
       <c r="S2" t="n">
-        <v>30.664542</v>
+        <v>141.831647</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Hormel vs Annies</t>
+          <t>Annies vs Velveeta</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -762,22 +762,22 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Velveeta vs Mac&amp;Cheese</t>
+          <t>Mac&amp;Cheese vs Hormel</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Annies vs Velveeta</t>
+          <t>Annies vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Annies</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Annie’s Shells &amp; White Cheddar</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
@@ -819,20 +819,16 @@
         <v>0.643</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.765716</v>
+        <v>23.428511</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.5, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.5, 1.0], "Amy’s Macaroni &amp; Cheese (frozen)_smartcore": [0.2, 0.9, 0.3, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.4, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.4, 0.8], "Velveeta_pack": [0.5, 0.0, 0.8, 0.48], "Velveeta_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -854,7 +850,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -864,66 +860,66 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Velveeta, Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Amy’s Macaroni &amp; Cheese (frozen)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.780922</v>
+        <v>9.441964</v>
       </c>
       <c r="H3" t="n">
-        <v>1.780922</v>
+        <v>9.441964</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:39.340653</t>
+          <t>2025-12-02T14:19:29.765721</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1764629079.340653</v>
+        <v>1764685169.765721</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:41.121575</t>
+          <t>2025-12-02T14:19:39.207685</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1764629081.121575</v>
+        <v>1764685179.207685</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:41.121575</t>
+          <t>2025-12-02T14:19:39.207685</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1764629081.121575</v>
+        <v>1764685179.207685</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:36.465862</t>
+          <t>2025-12-02T14:19:06.246400</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-12-01T22:45:07.130404</t>
+          <t>2025-12-02T14:21:28.078047</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1764629076.465862</v>
+        <v>1764685146.2464</v>
       </c>
       <c r="R3" t="n">
-        <v>1764629107.130404</v>
+        <v>1764685288.078047</v>
       </c>
       <c r="S3" t="n">
-        <v>30.664542</v>
+        <v>141.831647</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Hormel vs Annies</t>
+          <t>Annies vs Velveeta</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -933,22 +929,22 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Velveeta vs Mac&amp;Cheese</t>
+          <t>Mac&amp;Cheese vs Hormel</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Annies vs Velveeta</t>
+          <t>Annies vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Annies</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -968,17 +964,19 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Velveeta, Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Amy’s Macaroni &amp; Cheese (frozen)</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+          <t>Kraft Macaroni &amp; Cheese Dinner</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.571</v>
+      </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
@@ -989,7 +987,7 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>1.780922</v>
+        <v>9.441964</v>
       </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
@@ -997,7 +995,7 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>{"Velveeta_pack": [0.0, 0.0, 0.5, 0.6], "Velveeta_claim": [0.0, 0.6, 0.5, 1.0], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 1.0, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.4, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.4, 0.8], "Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.5, 0.0, 0.8, 0.48], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -1019,7 +1017,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1029,66 +1027,66 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
+          <t>Annie’s Shells &amp; White Cheddar, Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.961637</v>
+        <v>12.78876</v>
       </c>
       <c r="H4" t="n">
-        <v>1.961637</v>
+        <v>12.78876</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:41.121575</t>
+          <t>2025-12-02T14:19:39.207685</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1764629081.121575</v>
+        <v>1764685179.207685</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:43.083212</t>
+          <t>2025-12-02T14:19:51.996445</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1764629083.083212</v>
+        <v>1764685191.996445</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:43.083212</t>
+          <t>2025-12-02T14:19:51.996445</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1764629083.083212</v>
+        <v>1764685191.996445</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:36.465862</t>
+          <t>2025-12-02T14:19:06.246400</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-12-01T22:45:07.130404</t>
+          <t>2025-12-02T14:21:28.078047</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1764629076.465862</v>
+        <v>1764685146.2464</v>
       </c>
       <c r="R4" t="n">
-        <v>1764629107.130404</v>
+        <v>1764685288.078047</v>
       </c>
       <c r="S4" t="n">
-        <v>30.664542</v>
+        <v>141.831647</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Hormel vs Annies</t>
+          <t>Annies vs Velveeta</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1098,22 +1096,22 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Velveeta vs Mac&amp;Cheese</t>
+          <t>Mac&amp;Cheese vs Hormel</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Annies vs Velveeta</t>
+          <t>Annies vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Annies</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1133,18 +1131,18 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
+          <t>Annie’s Shells &amp; White Cheddar, Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="AG4" t="n">
-        <v>0.522</v>
+        <v>0.571</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
@@ -1157,14 +1155,14 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>1.961637</v>
+        <v>12.78876</v>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.5, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.5, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.4, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.4, 0.8], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 0.8, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1186,7 +1184,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1196,62 +1194,62 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nongshim Neoguri Spicy Seafood, Maruchan Ramen Sabor Pollo, Nissin Chow Mein Teriyaki Beef, Shin-ramyun</t>
+          <t>Nongshim Neoguri Spicy Seafood, Shin-ramyun, Nissin Chow Mein Teriyaki Beef, Maruchan Ramen Sabor Pollo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Maruchan Ramen Sabor Pollo</t>
+          <t>Shin-ramyun</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.336371</v>
+        <v>16.697394</v>
       </c>
       <c r="H5" t="n">
-        <v>9.18622</v>
+        <v>16.799207</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:44.870877</t>
+          <t>2025-12-02T14:19:52.202961</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1764629084.870877</v>
+        <v>1764685192.202961</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:52.207248</t>
+          <t>2025-12-02T14:20:08.900355</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1764629092.207248</v>
+        <v>1764685208.900355</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:54.057097</t>
+          <t>2025-12-02T14:20:09.002168</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1764629094.057097</v>
+        <v>1764685209.002168</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:36.465862</t>
+          <t>2025-12-02T14:19:06.246400</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-12-01T22:45:07.130404</t>
+          <t>2025-12-02T14:21:28.078047</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1764629076.465862</v>
+        <v>1764685146.2464</v>
       </c>
       <c r="R5" t="n">
-        <v>1764629107.130404</v>
+        <v>1764685288.078047</v>
       </c>
       <c r="S5" t="n">
-        <v>30.664542</v>
+        <v>141.831647</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1276,19 +1274,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Nongshim Neoguri Spicy Seafood, Maruchan Ramen Sabor Pollo, Nissin Chow Mein Teriyaki Beef, Shin-ramyun</t>
+          <t>Nongshim Neoguri Spicy Seafood, Shin-ramyun, Nissin Chow Mein Teriyaki Beef, Maruchan Ramen Sabor Pollo</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Maruchan Ramen Sabor Pollo</t>
-        </is>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.449</v>
-      </c>
+          <t>Shin-ramyun</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr">
         <is>
           <t>Nongshim Neoguri Spicy Seafood</t>
@@ -1300,16 +1296,12 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Nongshim Neoguri Spicy Seafood_pack": [0.0, 0.0, 0.5, 0.4], "Nongshim Neoguri Spicy Seafood_claim": [0.0, 0.4, 0.5, 0.8], "Nongshim Neoguri Spicy Seafood_smartcore": [0.2, 0.75, 0.3, 0.85], "Maruchan Ramen Sabor Pollo_pack": [0.5, 0.0, 1.0, 0.4], "Maruchan Ramen Sabor Pollo_claim": [0.5, 0.4, 1.0, 0.8], "Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.5, 0.5, 0.9], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.9, 0.5, 1.0], "Shin-ramyun_pack": [0.5, 0.5, 1.0, 0.9], "Shin-ramyun_claim": [0.5, 0.9, 1.0, 1.0]}</t>
+          <t>{"Nongshim Neoguri Spicy Seafood_pack": [0.0, 0.0, 0.4, 0.32000000000000006], "Nongshim Neoguri Spicy Seafood_claim": [0.0, 0.4, 0.4, 0.6400000000000001], "Shin-ramyun_pack": [0.5, 0.0, 0.8, 0.32000000000000006], "Shin-ramyun_claim": [0.5, 0.4, 0.8, 0.6400000000000001], "Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.5, 0.4, 0.7200000000000001], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.9, 0.4, 0.8], "Maruchan Ramen Sabor Pollo_pack": [0.5, 0.5, 0.8, 0.7200000000000001], "Maruchan Ramen Sabor Pollo_claim": [0.5, 0.9, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1331,7 +1323,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1341,62 +1333,62 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JackLinks</t>
+          <t>Wild Planet Wild Tuna Pasta Salad</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>JackLinks</t>
+          <t>Wild Planet Wild Tuna Pasta Salad</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>11.816065</v>
+        <v>75.909892</v>
       </c>
       <c r="H6" t="n">
-        <v>2.748456</v>
+        <v>46.911857</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-12-01T22:45:04.381721</t>
+          <t>2025-12-02T14:20:41.166060</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1764629104.381721</v>
+        <v>1764685241.16606</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-12-01T22:45:05.981649</t>
+          <t>2025-12-02T14:21:25.009845</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1764629105.981649</v>
+        <v>1764685285.009845</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-12-01T22:45:07.130177</t>
+          <t>2025-12-02T14:21:28.077917</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1764629107.130177</v>
+        <v>1764685288.077917</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-01T22:44:36.465862</t>
+          <t>2025-12-02T14:19:06.246400</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-12-01T22:45:07.130404</t>
+          <t>2025-12-02T14:21:28.078047</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1764629076.465862</v>
+        <v>1764685146.2464</v>
       </c>
       <c r="R6" t="n">
-        <v>1764629107.130404</v>
+        <v>1764685288.078047</v>
       </c>
       <c r="S6" t="n">
-        <v>30.664542</v>
+        <v>141.831647</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1421,17 +1413,19 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>JackLinks</t>
+          <t>Wild Planet Wild Tuna Pasta Salad</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>JackLinks</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+          <t>Wild Planet Wild Tuna Pasta Salad</t>
+        </is>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.734</v>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Wild Planet Wild Tuna Pasta Salad</t>
@@ -1448,28 +1442,28 @@
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>{"Seq-1": {"JackLinks_pack": [0.2, 0.0, 0.8, 0.7], "JackLinks_claim": [0.8, 0.0, 1.0, 1.0], "JackLinks_nutri": [0.0, 0.0, 0.2, 1.0]}}</t>
+          <t>{"Seq-1": {"Wild Planet Wild Tuna Pasta Salad_pack": [0.2, 0.0, 0.6400000000000001, 0.5599999999999999], "Wild Planet Wild Tuna Pasta Salad_claim": [0.8, 0.0, 0.8, 0.8], "Wild Planet Wild Tuna Pasta Salad_nutri": [0.0, 0.0, 0.16000000000000003, 0.8]}}</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 8.432, "JackLinks": 2.748, "TunaPasta": 1.589}</t>
+          <t>{"ChickenSalad": 31.379, "JackLinks": 5.783, "RedKidneyBeansCurry": 15.751, "TunaPasta": 24.939}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 1, "JackLinks": 1, "TunaPasta": 1}</t>
+          <t>{"ChickenSalad": 3, "JackLinks": 1, "RedKidneyBeansCurry": 5, "TunaPasta": 4}</t>
         </is>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{"timestamp": "2025-12-01T22:44:54.167118", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T22:45:02.598711", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T22:45:02.598711", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-01T22:45:02.696834", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-01T22:45:04.286011", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-01T22:45:04.286011", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-01T22:45:04.381721", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-01T22:45:07.130177", "event": "finalize", "image": "JackLinks"}]</t>
+          <t>[{"timestamp": "2025-12-02T14:20:09.101322", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T14:20:31.510432", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T14:20:31.510432", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T14:20:31.597961", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:20:41.060861", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:20:41.060861", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:20:41.166060", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T14:20:50.986433", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T14:20:50.986433", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-02T14:20:51.087035", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T14:20:56.869772", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-02T14:20:56.869772", "event": "prev", "image": "JackLinks"}, {"timestamp": "2025-12-02T14:20:56.958379", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T14:20:58.987340", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T14:20:58.987340", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-12-02T14:20:59.075594", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:01.475681", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:01.475681", "event": "prev", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:01.559559", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T14:21:07.815685", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T14:21:07.815685", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T14:21:07.899670", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:09.478097", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:09.478097", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:09.562596", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T14:21:16.671827", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T14:21:16.671827", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-12-02T14:21:16.787989", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:17.934383", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:17.934383", "event": "prev", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:18.029505", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T14:21:20.743394", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T14:21:20.743394", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T14:21:20.849410", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:22.012491", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:22.012491", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T14:21:22.097034", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T14:21:28.077917", "event": "finalize", "image": "TunaPasta"}]</t>
         </is>
       </c>
     </row>
